--- a/Presupuesto 2021.xlsx
+++ b/Presupuesto 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973E88DD-EF16-42A9-9AA6-B37B29C70771}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E22A138-22FF-4C16-A2DE-6132AB747163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categorias" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,6 +18,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -546,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +744,7 @@
         <v>40</v>
       </c>
       <c r="H17">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
@@ -808,7 +812,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1">
         <f>SUM(H15:H20)</f>
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
@@ -830,7 +834,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="4">
         <f>SUM(D21:Q21)</f>
-        <v>8107.333333333333</v>
+        <v>8082.333333333333</v>
       </c>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.25">
@@ -980,7 +984,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C38">
@@ -1029,8 +1033,8 @@
         <v>2540</v>
       </c>
       <c r="D39" s="6">
-        <f>(1630+2720+250)</f>
-        <v>4600</v>
+        <f>(1630+2432+250)</f>
+        <v>4312</v>
       </c>
       <c r="E39">
         <f>1630</f>
@@ -1041,8 +1045,8 @@
         <v>2540</v>
       </c>
       <c r="G39" s="6">
-        <f>(1630+2720+250)</f>
-        <v>4600</v>
+        <f>(1630+2432+250)</f>
+        <v>4312</v>
       </c>
       <c r="H39">
         <f>1630+1590</f>
@@ -1053,8 +1057,8 @@
         <v>2540</v>
       </c>
       <c r="J39" s="6">
-        <f>(1630+2720+250)</f>
-        <v>4600</v>
+        <f>(1630+2432+250)</f>
+        <v>4312</v>
       </c>
       <c r="K39">
         <v>1630</v>
@@ -1071,7 +1075,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C40">
@@ -1161,7 +1165,7 @@
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C42">
@@ -1202,7 +1206,7 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C43">
@@ -1243,7 +1247,7 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C44">
@@ -1284,7 +1288,7 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C45">
@@ -1331,7 +1335,7 @@
       </c>
       <c r="D48">
         <f t="shared" ref="D48:N48" si="0">SUM(D38:D47)</f>
-        <v>11049</v>
+        <v>10761</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
@@ -1343,7 +1347,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>11049</v>
+        <v>10761</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
@@ -1355,7 +1359,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>11049</v>
+        <v>10761</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
